--- a/KENTIM/DataSpreadsheets/Labour_PowerSector.xlsx
+++ b/KENTIM/DataSpreadsheets/Labour_PowerSector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\KENTIMGE\KENTIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4DE00E-5C24-4BBD-BCD2-70AD9D4230A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB9908-F6E1-4480-A1C6-D8A726EB98BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="27720" windowHeight="14715" xr2:uid="{EB9726E6-E93B-45BF-ACBA-DB37C3726A04}"/>
   </bookViews>
